--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
   <si>
     <t>Test Case ID</t>
   </si>

--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,6 +968,9 @@
       </c>
       <c r="F12" s="5" t="s">
         <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,7 +1171,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,8 +1217,11 @@
       <c r="B3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>86</v>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="89">
   <si>
     <t>Test Case ID</t>
   </si>

--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -713,7 +713,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1217,7 @@
       <c r="B3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">

--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Login_01</t>
-  </si>
-  <si>
     <t>TS_ID</t>
   </si>
   <si>
@@ -67,57 +64,21 @@
     <t>navigate</t>
   </si>
   <si>
-    <t>Enter Email Address in Email Address field</t>
-  </si>
-  <si>
-    <t>Enter password in password field</t>
-  </si>
-  <si>
-    <t>Click on Signin button</t>
-  </si>
-  <si>
-    <t>Wait for sometime</t>
-  </si>
-  <si>
-    <t>waitFor</t>
-  </si>
-  <si>
-    <t>Click on Logout button</t>
-  </si>
-  <si>
     <t>Page Object</t>
   </si>
   <si>
-    <t>txt_Username</t>
-  </si>
-  <si>
-    <t>txt_Password</t>
-  </si>
-  <si>
-    <t>btn_Login</t>
-  </si>
-  <si>
-    <t>btn_Logout</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
     <t>TS_008</t>
   </si>
   <si>
-    <t>closeBrowser</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Runmode</t>
   </si>
   <si>
-    <t>Log in to the Selenium Automation Application</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -130,150 +91,39 @@
     <t>Data Set</t>
   </si>
   <si>
-    <t>ravikaanthe@rediffmail.com</t>
-  </si>
-  <si>
-    <t>test@123</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
     <t>Menu_Navigation</t>
   </si>
   <si>
-    <t>Click on T-SHIRTS main menue</t>
-  </si>
-  <si>
-    <t>btn_Tshirts</t>
-  </si>
-  <si>
-    <t>TS_009</t>
-  </si>
-  <si>
-    <t>compareGetText</t>
-  </si>
-  <si>
-    <t>Compare title of the T-SHIRTS main menue page</t>
-  </si>
-  <si>
-    <t>title_Tshirts</t>
-  </si>
-  <si>
-    <t>T-shirts</t>
-  </si>
-  <si>
     <t>TS_010</t>
   </si>
   <si>
     <t>Validating Main Menue navigations</t>
   </si>
   <si>
-    <t>Close Browser</t>
-  </si>
-  <si>
     <t>Logout_01</t>
   </si>
   <si>
-    <t>TS_011</t>
-  </si>
-  <si>
-    <t>Verify the webelement Username on page</t>
-  </si>
-  <si>
-    <t>Verify the webelement Passwrod on page</t>
-  </si>
-  <si>
     <t>TS_007</t>
   </si>
   <si>
-    <t>TS_012</t>
-  </si>
-  <si>
-    <t>Verify the webelement login button</t>
-  </si>
-  <si>
-    <t>Compare link text of the customer account who has logged-in</t>
-  </si>
-  <si>
-    <t>lnk_custaccount</t>
-  </si>
-  <si>
-    <t>compareLinkText</t>
-  </si>
-  <si>
-    <t>ravi reddy</t>
-  </si>
-  <si>
-    <t>TS_013</t>
-  </si>
-  <si>
-    <t>TS_014</t>
-  </si>
-  <si>
     <t>verifyElement</t>
   </si>
   <si>
     <t>Verifying the account of user who logged-in</t>
   </si>
   <si>
-    <t>TS_015</t>
-  </si>
-  <si>
     <t>Verify_Account</t>
   </si>
   <si>
     <t>Verify_MyAccount_Page</t>
   </si>
   <si>
-    <t>TS_016</t>
-  </si>
-  <si>
-    <t>TS_017</t>
-  </si>
-  <si>
-    <t>TS_018</t>
-  </si>
-  <si>
-    <t>TS_019</t>
-  </si>
-  <si>
-    <t>TS_020</t>
-  </si>
-  <si>
     <t>Verify the elements of My Account Page</t>
   </si>
   <si>
-    <t>Verify the element btn_OrderHistory of My Account Page</t>
-  </si>
-  <si>
-    <t>Verify the element btn_MycreditSlips of My Account Page</t>
-  </si>
-  <si>
-    <t>Verify the element btn_Myaddress of My Account Page</t>
-  </si>
-  <si>
-    <t>Verify the element btn_Mypersonalinfo of My Account Page</t>
-  </si>
-  <si>
-    <t>Verify the elements btn_Mywhishlist of My Account Page</t>
-  </si>
-  <si>
-    <t>btn_OrderHistory</t>
-  </si>
-  <si>
-    <t>btn_MycreditSlips</t>
-  </si>
-  <si>
-    <t>btn_Myaddress</t>
-  </si>
-  <si>
-    <t>btn_Mypersonalinfo</t>
-  </si>
-  <si>
-    <t>btn_Mywhishlist</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -283,10 +133,76 @@
     <t>No</t>
   </si>
   <si>
+    <t>Verify_Add</t>
+  </si>
+  <si>
+    <t>Verfying Adding a user</t>
+  </si>
+  <si>
+    <t>https://www.ranorex.com/web-testing-examples/vip/</t>
+  </si>
+  <si>
+    <t>txt_firstname</t>
+  </si>
+  <si>
+    <t>Verify the webelement First Name</t>
+  </si>
+  <si>
+    <t>Enter Name in First Name field</t>
+  </si>
+  <si>
+    <t>txt_lastname</t>
+  </si>
+  <si>
+    <t>Arjunesh</t>
+  </si>
+  <si>
+    <t>Verify the webelement Last Name</t>
+  </si>
+  <si>
+    <t>Enter Name in Last Name field</t>
+  </si>
+  <si>
+    <t>Janardhanan</t>
+  </si>
+  <si>
+    <t>Select Gender</t>
+  </si>
+  <si>
+    <t>select_gender</t>
+  </si>
+  <si>
+    <t>Select Category</t>
+  </si>
+  <si>
+    <t>select_listbox</t>
+  </si>
+  <si>
+    <t>select_category</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Click on Add button</t>
+  </si>
+  <si>
+    <t>click_button</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>Verify Add is succesfull</t>
+  </si>
+  <si>
+    <t>verify_add</t>
+  </si>
+  <si>
+    <t>|Arjunesh|Janardhanan|Male|Movie|</t>
+  </si>
+  <si>
+    <t>tbl_addview</t>
   </si>
 </sst>
 </file>
@@ -393,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -401,19 +317,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -702,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,9 +659,9 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="21.140625" collapsed="true"/>
     <col min="2" max="2" style="4" width="8.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="51.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="4" width="22.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="24.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="51.0" collapsed="true"/>
     <col min="7" max="16384" style="4" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -732,437 +670,269 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="12"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
+      <c r="A3" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
+      <c r="A5" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
+      <c r="A6" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>53</v>
+      <c r="C7" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>1</v>
+      <c r="A8" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>66</v>
+      <c r="A12" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="G12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FAIL">
+  <conditionalFormatting sqref="G1:G11 G13:G1048576">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",G12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1170,96 +940,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="41.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="10" width="12.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="10" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="41.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="12.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="9" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>86</v>
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>86</v>
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>86</v>
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
